--- a/LOreferenceData_final_formfeedversion2.xlsx
+++ b/LOreferenceData_final_formfeedversion2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pritheekakarla/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84C89AAD-E7A7-094B-AD65-BAE081502AC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99ED4EB3-CE9A-9843-8CB2-BB8F44745746}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4420" yWindow="680" windowWidth="24980" windowHeight="17040" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18280,8 +18280,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:AB11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
@@ -18365,7 +18365,7 @@
     </row>
     <row r="2" spans="1:28">
       <c r="A2" s="5">
-        <v>2023</v>
+        <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>74</v>
@@ -18451,7 +18451,7 @@
     </row>
     <row r="3" spans="1:28">
       <c r="A3" s="5">
-        <v>2023</v>
+        <v>1</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>74</v>
@@ -18537,7 +18537,7 @@
     </row>
     <row r="4" spans="1:28">
       <c r="A4" s="5">
-        <v>2023</v>
+        <v>1</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>74</v>
@@ -18623,7 +18623,7 @@
     </row>
     <row r="5" spans="1:28">
       <c r="A5" s="5">
-        <v>2024</v>
+        <v>2</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>95</v>
@@ -18709,7 +18709,7 @@
     </row>
     <row r="6" spans="1:28">
       <c r="A6" s="5">
-        <v>2024</v>
+        <v>2</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>95</v>
@@ -18795,7 +18795,7 @@
     </row>
     <row r="7" spans="1:28">
       <c r="A7" s="5">
-        <v>2024</v>
+        <v>2</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>95</v>
@@ -18881,7 +18881,7 @@
     </row>
     <row r="8" spans="1:28">
       <c r="A8" s="5">
-        <v>2024</v>
+        <v>2</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>95</v>
@@ -18967,7 +18967,7 @@
     </row>
     <row r="9" spans="1:28">
       <c r="A9" s="5">
-        <v>2024</v>
+        <v>2</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>95</v>
@@ -19053,7 +19053,7 @@
     </row>
     <row r="10" spans="1:28">
       <c r="A10" s="5">
-        <v>2024</v>
+        <v>2</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>95</v>
@@ -19139,7 +19139,7 @@
     </row>
     <row r="11" spans="1:28">
       <c r="A11" s="5">
-        <v>2024</v>
+        <v>1</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>95</v>
@@ -19233,7 +19233,7 @@
   <dimension ref="A1:A8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M25" sqref="M25"/>
+      <selection activeCell="A2" sqref="A2:A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
